--- a/lib/project_haystack_units.xlsx
+++ b/lib/project_haystack_units.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nrel_units" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="884">
   <si>
     <t>undefined</t>
   </si>
@@ -2657,6 +2657,21 @@
   </si>
   <si>
     <t>NL: added</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>is it SI?</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>KF: Added</t>
+  </si>
+  <si>
+    <t>allowable</t>
   </si>
 </sst>
 </file>
@@ -2744,8 +2759,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2817,7 +2902,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2847,6 +2932,41 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2876,6 +2996,41 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3205,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3220,7 +3375,7 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>824</v>
       </c>
@@ -3245,8 +3400,14 @@
       <c r="H1" s="3" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>869</v>
       </c>
@@ -3265,8 +3426,11 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>868</v>
       </c>
@@ -3285,8 +3449,11 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>753</v>
       </c>
@@ -3305,8 +3472,11 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>867</v>
       </c>
@@ -3325,8 +3495,11 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3345,8 +3518,11 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>812</v>
       </c>
@@ -3365,8 +3541,11 @@
       <c r="F7" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>651</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="F8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>866</v>
       </c>
@@ -3405,8 +3587,11 @@
       <c r="F9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>865</v>
       </c>
@@ -3428,8 +3613,11 @@
       <c r="H10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>795</v>
       </c>
@@ -3448,8 +3636,11 @@
       <c r="F11" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>635</v>
       </c>
@@ -3468,8 +3659,11 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3488,8 +3682,11 @@
       <c r="F13" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>864</v>
       </c>
@@ -3511,8 +3708,11 @@
       <c r="G14" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>814</v>
       </c>
@@ -3531,8 +3731,11 @@
       <c r="F15" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>863</v>
       </c>
@@ -3551,8 +3754,11 @@
       <c r="F16" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>777</v>
       </c>
@@ -3571,8 +3777,11 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>862</v>
       </c>
@@ -3591,8 +3800,11 @@
       <c r="F18" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>861</v>
       </c>
@@ -3611,8 +3823,11 @@
       <c r="F19" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>860</v>
       </c>
@@ -3631,8 +3846,11 @@
       <c r="F20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>859</v>
       </c>
@@ -3651,8 +3869,11 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>822</v>
       </c>
@@ -3671,8 +3892,11 @@
       <c r="F22" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3691,8 +3915,11 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>832</v>
       </c>
@@ -3711,8 +3938,11 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>858</v>
       </c>
@@ -3731,8 +3961,11 @@
       <c r="F25" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>833</v>
       </c>
@@ -3751,8 +3984,11 @@
       <c r="F26" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -3771,8 +4007,11 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>427</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="F28" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>432</v>
       </c>
@@ -3811,8 +4053,11 @@
       <c r="F29" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -3831,8 +4076,11 @@
       <c r="F30" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>857</v>
       </c>
@@ -3851,8 +4099,11 @@
       <c r="F31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>856</v>
       </c>
@@ -3871,8 +4122,11 @@
       <c r="F32" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>793</v>
       </c>
@@ -3891,8 +4145,11 @@
       <c r="F33" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>855</v>
       </c>
@@ -3911,8 +4168,11 @@
       <c r="F34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>854</v>
       </c>
@@ -3931,8 +4191,11 @@
       <c r="F35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>853</v>
       </c>
@@ -3951,8 +4214,11 @@
       <c r="F36" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -3971,8 +4237,11 @@
       <c r="F37" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>852</v>
       </c>
@@ -3991,8 +4260,11 @@
       <c r="F38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>870</v>
       </c>
@@ -4011,8 +4283,11 @@
       <c r="F39" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>648</v>
       </c>
@@ -4031,8 +4306,11 @@
       <c r="F40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>726</v>
       </c>
@@ -4051,8 +4329,11 @@
       <c r="F41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>724</v>
       </c>
@@ -4071,8 +4352,11 @@
       <c r="F42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -4091,8 +4375,11 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>634</v>
       </c>
@@ -4111,8 +4398,11 @@
       <c r="F44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>851</v>
       </c>
@@ -4131,8 +4421,11 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>850</v>
       </c>
@@ -4151,8 +4444,11 @@
       <c r="F46" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>849</v>
       </c>
@@ -4171,8 +4467,11 @@
       <c r="F47" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>633</v>
       </c>
@@ -4191,8 +4490,11 @@
       <c r="F48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -4211,8 +4513,11 @@
       <c r="F49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>671</v>
       </c>
@@ -4231,8 +4536,11 @@
       <c r="F50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
         <v>843</v>
       </c>
@@ -4254,8 +4562,11 @@
       <c r="G51" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>844</v>
       </c>
@@ -4274,8 +4585,11 @@
       <c r="F52" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>845</v>
       </c>
@@ -4294,8 +4608,11 @@
       <c r="F53" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>846</v>
       </c>
@@ -4314,8 +4631,11 @@
       <c r="F54" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>847</v>
       </c>
@@ -4334,8 +4654,11 @@
       <c r="F55" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>848</v>
       </c>
@@ -4354,8 +4677,11 @@
       <c r="F56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>842</v>
       </c>
@@ -4374,8 +4700,11 @@
       <c r="F57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>841</v>
       </c>
@@ -4394,8 +4723,11 @@
       <c r="F58" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>840</v>
       </c>
@@ -4414,8 +4746,11 @@
       <c r="F59" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -4434,8 +4769,11 @@
       <c r="F60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -4454,8 +4792,11 @@
       <c r="F61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>839</v>
       </c>
@@ -4474,8 +4815,11 @@
       <c r="F62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>838</v>
       </c>
@@ -4494,8 +4838,11 @@
       <c r="F63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>837</v>
       </c>
@@ -4514,8 +4861,11 @@
       <c r="F64" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>836</v>
       </c>
@@ -4534,8 +4884,11 @@
       <c r="F65" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="I65" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>835</v>
       </c>
@@ -4554,8 +4907,11 @@
       <c r="F66" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="I66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>834</v>
       </c>
@@ -4574,8 +4930,11 @@
       <c r="F67" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="I67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -4593,6 +4952,9 @@
       </c>
       <c r="F68" t="s">
         <v>207</v>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4611,11 +4973,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4625,7 +4985,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>628</v>
       </c>
@@ -4644,8 +5004,14 @@
       <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
@@ -4660,8 +5026,11 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -4676,8 +5045,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -4692,8 +5064,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -4708,8 +5083,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -4724,8 +5102,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
@@ -4740,8 +5121,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
@@ -4756,8 +5140,11 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -4772,8 +5159,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -4788,8 +5178,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -4804,8 +5197,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -4820,8 +5216,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -4836,8 +5235,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -4852,8 +5254,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -4868,8 +5273,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -4884,8 +5292,11 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -4900,8 +5311,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -4916,8 +5330,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -4932,8 +5349,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -4948,8 +5368,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -4964,8 +5387,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -4980,8 +5406,11 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -4996,8 +5425,11 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -5012,8 +5444,11 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
@@ -5028,8 +5463,11 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -5044,8 +5482,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>44</v>
       </c>
@@ -5060,8 +5501,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
@@ -5076,8 +5520,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -5092,8 +5539,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -5110,8 +5560,11 @@
       <c r="F30" s="6" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -5128,8 +5581,11 @@
       <c r="F31" s="6" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>578</v>
       </c>
@@ -5144,8 +5600,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>578</v>
       </c>
@@ -5162,8 +5621,11 @@
         <v>99</v>
       </c>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>578</v>
       </c>
@@ -5178,8 +5640,11 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>578</v>
       </c>
@@ -5196,8 +5661,11 @@
         <v>104</v>
       </c>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>578</v>
       </c>
@@ -5214,8 +5682,11 @@
         <v>107</v>
       </c>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>578</v>
       </c>
@@ -5230,8 +5701,11 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>578</v>
       </c>
@@ -5248,8 +5722,11 @@
         <v>112</v>
       </c>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>578</v>
       </c>
@@ -5266,8 +5743,11 @@
         <v>115</v>
       </c>
       <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="6" t="s">
         <v>578</v>
       </c>
@@ -5284,8 +5764,11 @@
         <v>118</v>
       </c>
       <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
         <v>578</v>
       </c>
@@ -5302,8 +5785,11 @@
         <v>121</v>
       </c>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
         <v>578</v>
       </c>
@@ -5320,8 +5806,11 @@
         <v>124</v>
       </c>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
         <v>578</v>
       </c>
@@ -5336,8 +5825,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="6" t="s">
         <v>578</v>
       </c>
@@ -5354,8 +5846,11 @@
         <v>129</v>
       </c>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
         <v>579</v>
       </c>
@@ -5370,8 +5865,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
         <v>580</v>
       </c>
@@ -5386,8 +5884,11 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="6" t="s">
         <v>581</v>
       </c>
@@ -5402,8 +5903,11 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="6" t="s">
         <v>582</v>
       </c>
@@ -5418,8 +5922,11 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>582</v>
       </c>
@@ -5434,8 +5941,11 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>583</v>
       </c>
@@ -5450,8 +5960,11 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>583</v>
       </c>
@@ -5466,8 +5979,11 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>583</v>
       </c>
@@ -5482,8 +5998,11 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>583</v>
       </c>
@@ -5498,8 +6017,11 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>583</v>
       </c>
@@ -5514,8 +6036,11 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>583</v>
       </c>
@@ -5530,8 +6055,11 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>583</v>
       </c>
@@ -5546,8 +6074,11 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
         <v>583</v>
       </c>
@@ -5562,8 +6093,11 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="6" t="s">
         <v>583</v>
       </c>
@@ -5578,8 +6112,11 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>584</v>
       </c>
@@ -5594,8 +6131,11 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>585</v>
       </c>
@@ -5610,8 +6150,11 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
         <v>585</v>
       </c>
@@ -5626,8 +6169,11 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>585</v>
       </c>
@@ -5644,8 +6190,11 @@
         <v>164</v>
       </c>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>586</v>
       </c>
@@ -5660,8 +6209,11 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="6" t="s">
         <v>587</v>
       </c>
@@ -5676,8 +6228,11 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>588</v>
       </c>
@@ -5692,8 +6247,11 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>34</v>
       </c>
@@ -5708,8 +6266,11 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="6" t="s">
         <v>34</v>
       </c>
@@ -5724,8 +6285,11 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>589</v>
       </c>
@@ -5740,8 +6304,11 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>590</v>
       </c>
@@ -5756,8 +6323,11 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>591</v>
       </c>
@@ -5772,8 +6342,11 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="6" t="s">
         <v>591</v>
       </c>
@@ -5788,8 +6361,11 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="6" t="s">
         <v>591</v>
       </c>
@@ -5804,8 +6380,11 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="6" t="s">
         <v>591</v>
       </c>
@@ -5820,8 +6399,11 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
         <v>592</v>
       </c>
@@ -5838,8 +6420,11 @@
         <v>187</v>
       </c>
       <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="6" t="s">
         <v>592</v>
       </c>
@@ -5856,8 +6441,11 @@
         <v>190</v>
       </c>
       <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>592</v>
       </c>
@@ -5874,8 +6462,11 @@
         <v>193</v>
       </c>
       <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="6" t="s">
         <v>592</v>
       </c>
@@ -5892,8 +6483,11 @@
         <v>196</v>
       </c>
       <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
         <v>593</v>
       </c>
@@ -5908,8 +6502,11 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
         <v>594</v>
       </c>
@@ -5926,8 +6523,11 @@
         <v>201</v>
       </c>
       <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>35</v>
       </c>
@@ -5942,8 +6542,11 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>35</v>
       </c>
@@ -5958,8 +6561,11 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="6" t="s">
         <v>35</v>
       </c>
@@ -5974,8 +6580,11 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>35</v>
       </c>
@@ -5990,8 +6599,11 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="6" t="s">
         <v>35</v>
       </c>
@@ -6006,8 +6618,11 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="6" t="s">
         <v>35</v>
       </c>
@@ -6022,8 +6637,11 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="6" t="s">
         <v>35</v>
       </c>
@@ -6038,8 +6656,11 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="6" t="s">
         <v>35</v>
       </c>
@@ -6056,8 +6677,11 @@
         <v>216</v>
       </c>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="6" t="s">
         <v>35</v>
       </c>
@@ -6072,8 +6696,11 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
         <v>35</v>
       </c>
@@ -6088,8 +6715,11 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
         <v>35</v>
       </c>
@@ -6104,8 +6734,11 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="6" t="s">
         <v>35</v>
       </c>
@@ -6120,8 +6753,11 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
         <v>35</v>
       </c>
@@ -6136,8 +6772,11 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="6" t="s">
         <v>35</v>
       </c>
@@ -6152,8 +6791,11 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="6" t="s">
         <v>35</v>
       </c>
@@ -6168,8 +6810,11 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="6" t="s">
         <v>35</v>
       </c>
@@ -6184,8 +6829,11 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="6" t="s">
         <v>35</v>
       </c>
@@ -6200,8 +6848,11 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="6" t="s">
         <v>595</v>
       </c>
@@ -6216,8 +6867,11 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>595</v>
       </c>
@@ -6232,8 +6886,11 @@
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>595</v>
       </c>
@@ -6248,8 +6905,11 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
         <v>596</v>
       </c>
@@ -6264,8 +6924,11 @@
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="6" t="s">
         <v>596</v>
       </c>
@@ -6280,8 +6943,11 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="6" t="s">
         <v>596</v>
       </c>
@@ -6296,8 +6962,11 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="6" t="s">
         <v>597</v>
       </c>
@@ -6312,8 +6981,11 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="6" t="s">
         <v>597</v>
       </c>
@@ -6328,8 +7000,11 @@
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="6" t="s">
         <v>597</v>
       </c>
@@ -6344,8 +7019,11 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="6" t="s">
         <v>597</v>
       </c>
@@ -6360,8 +7038,11 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>597</v>
       </c>
@@ -6376,8 +7057,11 @@
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>597</v>
       </c>
@@ -6392,8 +7076,11 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>597</v>
       </c>
@@ -6408,8 +7095,11 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>37</v>
       </c>
@@ -6424,8 +7114,11 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="6" t="s">
         <v>37</v>
       </c>
@@ -6440,8 +7133,11 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="6" t="s">
         <v>37</v>
       </c>
@@ -6456,8 +7152,11 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="6" t="s">
         <v>37</v>
       </c>
@@ -6472,8 +7171,11 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="6" t="s">
         <v>37</v>
       </c>
@@ -6488,8 +7190,11 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="6" t="s">
         <v>37</v>
       </c>
@@ -6504,8 +7209,11 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -6520,8 +7228,11 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
@@ -6536,8 +7247,11 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="6" t="s">
         <v>37</v>
       </c>
@@ -6552,8 +7266,11 @@
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="6" t="s">
         <v>598</v>
       </c>
@@ -6568,8 +7285,11 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="6" t="s">
         <v>598</v>
       </c>
@@ -6584,8 +7304,11 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="6" t="s">
         <v>598</v>
       </c>
@@ -6600,8 +7323,11 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="6" t="s">
         <v>599</v>
       </c>
@@ -6616,8 +7342,11 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="6" t="s">
         <v>599</v>
       </c>
@@ -6632,8 +7361,11 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="6" t="s">
         <v>600</v>
       </c>
@@ -6648,8 +7380,11 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="6" t="s">
         <v>600</v>
       </c>
@@ -6664,8 +7399,11 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="6" t="s">
         <v>600</v>
       </c>
@@ -6680,8 +7418,11 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="6" t="s">
         <v>600</v>
       </c>
@@ -6696,8 +7437,11 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>600</v>
       </c>
@@ -6712,8 +7456,11 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>600</v>
       </c>
@@ -6728,8 +7475,11 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="6" t="s">
         <v>600</v>
       </c>
@@ -6744,8 +7494,11 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="6" t="s">
         <v>600</v>
       </c>
@@ -6760,8 +7513,11 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="6" t="s">
         <v>600</v>
       </c>
@@ -6776,8 +7532,11 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="6" t="s">
         <v>601</v>
       </c>
@@ -6792,8 +7551,11 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>601</v>
       </c>
@@ -6808,8 +7570,11 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>602</v>
       </c>
@@ -6824,8 +7589,11 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>602</v>
       </c>
@@ -6840,8 +7608,11 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>602</v>
       </c>
@@ -6856,8 +7627,11 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>602</v>
       </c>
@@ -6872,8 +7646,11 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>602</v>
       </c>
@@ -6888,8 +7665,11 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>602</v>
       </c>
@@ -6904,8 +7684,11 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="6" t="s">
         <v>602</v>
       </c>
@@ -6920,8 +7703,11 @@
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="6" t="s">
         <v>603</v>
       </c>
@@ -6936,8 +7722,11 @@
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="6" t="s">
         <v>603</v>
       </c>
@@ -6954,8 +7743,11 @@
       <c r="F143" s="5" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="6" t="s">
         <v>603</v>
       </c>
@@ -6970,8 +7762,11 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>604</v>
       </c>
@@ -6986,8 +7781,11 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="6" t="s">
         <v>605</v>
       </c>
@@ -7002,8 +7800,11 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="6" t="s">
         <v>605</v>
       </c>
@@ -7018,8 +7819,11 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="6" t="s">
         <v>606</v>
       </c>
@@ -7034,8 +7838,11 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="6" t="s">
         <v>606</v>
       </c>
@@ -7050,8 +7857,11 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="6" t="s">
         <v>606</v>
       </c>
@@ -7066,8 +7876,11 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="6" t="s">
         <v>606</v>
       </c>
@@ -7082,8 +7895,11 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="6" t="s">
         <v>606</v>
       </c>
@@ -7098,8 +7914,11 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="6" t="s">
         <v>606</v>
       </c>
@@ -7114,8 +7933,11 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="6" t="s">
         <v>606</v>
       </c>
@@ -7130,8 +7952,11 @@
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="6" t="s">
         <v>606</v>
       </c>
@@ -7146,8 +7971,11 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="6" t="s">
         <v>606</v>
       </c>
@@ -7162,8 +7990,11 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="6" t="s">
         <v>607</v>
       </c>
@@ -7178,8 +8009,11 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="6" t="s">
         <v>607</v>
       </c>
@@ -7194,8 +8028,11 @@
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="6" t="s">
         <v>608</v>
       </c>
@@ -7210,8 +8047,11 @@
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>609</v>
       </c>
@@ -7226,8 +8066,11 @@
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="6" t="s">
         <v>610</v>
       </c>
@@ -7242,8 +8085,11 @@
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="6" t="s">
         <v>611</v>
       </c>
@@ -7258,8 +8104,11 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="6" t="s">
         <v>612</v>
       </c>
@@ -7274,8 +8123,11 @@
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="6" t="s">
         <v>612</v>
       </c>
@@ -7290,8 +8142,11 @@
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="6" t="s">
         <v>612</v>
       </c>
@@ -7306,8 +8161,11 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="6" t="s">
         <v>612</v>
       </c>
@@ -7322,8 +8180,11 @@
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="6" t="s">
         <v>612</v>
       </c>
@@ -7338,8 +8199,11 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="6" t="s">
         <v>612</v>
       </c>
@@ -7354,8 +8218,11 @@
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="6" t="s">
         <v>612</v>
       </c>
@@ -7370,8 +8237,11 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="6" t="s">
         <v>613</v>
       </c>
@@ -7386,8 +8256,11 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="6" t="s">
         <v>613</v>
       </c>
@@ -7402,8 +8275,11 @@
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="6" t="s">
         <v>613</v>
       </c>
@@ -7418,8 +8294,11 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="6" t="s">
         <v>613</v>
       </c>
@@ -7434,8 +8313,11 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="6" t="s">
         <v>613</v>
       </c>
@@ -7450,8 +8332,11 @@
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="6" t="s">
         <v>613</v>
       </c>
@@ -7466,8 +8351,11 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="6" t="s">
         <v>613</v>
       </c>
@@ -7482,8 +8370,11 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="6" t="s">
         <v>613</v>
       </c>
@@ -7498,8 +8389,11 @@
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="6" t="s">
         <v>613</v>
       </c>
@@ -7514,8 +8408,11 @@
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="6" t="s">
         <v>614</v>
       </c>
@@ -7530,8 +8427,11 @@
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="6" t="s">
         <v>38</v>
       </c>
@@ -7546,8 +8446,11 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="6" t="s">
         <v>38</v>
       </c>
@@ -7562,8 +8465,11 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="6" t="s">
         <v>38</v>
       </c>
@@ -7578,8 +8484,11 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>38</v>
       </c>
@@ -7594,8 +8503,11 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="6" t="s">
         <v>38</v>
       </c>
@@ -7610,8 +8522,11 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="6" t="s">
         <v>38</v>
       </c>
@@ -7626,8 +8541,11 @@
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="6" t="s">
         <v>38</v>
       </c>
@@ -7642,8 +8560,11 @@
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="6" t="s">
         <v>38</v>
       </c>
@@ -7658,8 +8579,11 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="6" t="s">
         <v>38</v>
       </c>
@@ -7674,8 +8598,11 @@
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="6" t="s">
         <v>38</v>
       </c>
@@ -7690,8 +8617,11 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="6" t="s">
         <v>38</v>
       </c>
@@ -7706,8 +8636,11 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="6" t="s">
         <v>38</v>
       </c>
@@ -7722,8 +8655,11 @@
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="6" t="s">
         <v>38</v>
       </c>
@@ -7738,8 +8674,11 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="6" t="s">
         <v>615</v>
       </c>
@@ -7754,8 +8693,11 @@
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="6" t="s">
         <v>615</v>
       </c>
@@ -7770,8 +8712,11 @@
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="6" t="s">
         <v>615</v>
       </c>
@@ -7786,8 +8731,11 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="6" t="s">
         <v>615</v>
       </c>
@@ -7802,8 +8750,11 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="6" t="s">
         <v>615</v>
       </c>
@@ -7818,8 +8769,11 @@
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="6" t="s">
         <v>616</v>
       </c>
@@ -7834,8 +8788,11 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="6" t="s">
         <v>616</v>
       </c>
@@ -7850,8 +8807,11 @@
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="6" t="s">
         <v>616</v>
       </c>
@@ -7866,8 +8826,11 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="6" t="s">
         <v>616</v>
       </c>
@@ -7882,8 +8845,11 @@
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="6" t="s">
         <v>617</v>
       </c>
@@ -7898,8 +8864,11 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="6" t="s">
         <v>617</v>
       </c>
@@ -7914,8 +8883,11 @@
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="6" t="s">
         <v>617</v>
       </c>
@@ -7930,8 +8902,11 @@
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="6" t="s">
         <v>618</v>
       </c>
@@ -7946,8 +8921,11 @@
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="6" t="s">
         <v>618</v>
       </c>
@@ -7962,8 +8940,11 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="6" t="s">
         <v>618</v>
       </c>
@@ -7978,8 +8959,11 @@
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="6" t="s">
         <v>619</v>
       </c>
@@ -7994,8 +8978,11 @@
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="6" t="s">
         <v>619</v>
       </c>
@@ -8010,8 +8997,11 @@
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="6" t="s">
         <v>619</v>
       </c>
@@ -8026,8 +9016,11 @@
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="6" t="s">
         <v>619</v>
       </c>
@@ -8042,8 +9035,11 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="6" t="s">
         <v>619</v>
       </c>
@@ -8058,8 +9054,11 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="6" t="s">
         <v>619</v>
       </c>
@@ -8074,8 +9073,11 @@
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="6" t="s">
         <v>619</v>
       </c>
@@ -8090,8 +9092,11 @@
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="6" t="s">
         <v>619</v>
       </c>
@@ -8106,8 +9111,11 @@
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="6" t="s">
         <v>619</v>
       </c>
@@ -8122,8 +9130,11 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="6" t="s">
         <v>619</v>
       </c>
@@ -8138,8 +9149,11 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="6" t="s">
         <v>619</v>
       </c>
@@ -8154,8 +9168,11 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="6" t="s">
         <v>619</v>
       </c>
@@ -8170,8 +9187,11 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="6" t="s">
         <v>620</v>
       </c>
@@ -8186,8 +9206,11 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="6" t="s">
         <v>621</v>
       </c>
@@ -8202,8 +9225,11 @@
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="6" t="s">
         <v>39</v>
       </c>
@@ -8218,8 +9244,11 @@
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="6" t="s">
         <v>39</v>
       </c>
@@ -8234,8 +9263,11 @@
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="6" t="s">
         <v>39</v>
       </c>
@@ -8250,8 +9282,11 @@
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="6" t="s">
         <v>622</v>
       </c>
@@ -8266,8 +9301,11 @@
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>622</v>
       </c>
@@ -8282,8 +9320,11 @@
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="6" t="s">
         <v>622</v>
       </c>
@@ -8298,8 +9339,11 @@
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>623</v>
       </c>
@@ -8314,8 +9358,11 @@
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="6" t="s">
         <v>624</v>
       </c>
@@ -8330,8 +9377,11 @@
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="6" t="s">
         <v>624</v>
       </c>
@@ -8346,8 +9396,11 @@
       </c>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="6" t="s">
         <v>624</v>
       </c>
@@ -8362,8 +9415,11 @@
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="6" t="s">
         <v>624</v>
       </c>
@@ -8378,8 +9434,11 @@
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="6" t="s">
         <v>624</v>
       </c>
@@ -8394,8 +9453,11 @@
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="6" t="s">
         <v>624</v>
       </c>
@@ -8412,8 +9474,11 @@
         <v>484</v>
       </c>
       <c r="F234" s="5"/>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="6" t="s">
         <v>624</v>
       </c>
@@ -8428,8 +9493,11 @@
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="6" t="s">
         <v>624</v>
       </c>
@@ -8446,8 +9514,11 @@
         <v>489</v>
       </c>
       <c r="F236" s="5"/>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="6" t="s">
         <v>624</v>
       </c>
@@ -8462,8 +9533,11 @@
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="6" t="s">
         <v>624</v>
       </c>
@@ -8478,8 +9552,11 @@
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="6" t="s">
         <v>624</v>
       </c>
@@ -8494,8 +9571,11 @@
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="6" t="s">
         <v>624</v>
       </c>
@@ -8510,8 +9590,11 @@
       </c>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="6" t="s">
         <v>625</v>
       </c>
@@ -8526,8 +9609,11 @@
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="6" t="s">
         <v>625</v>
       </c>
@@ -8542,8 +9628,11 @@
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="6" t="s">
         <v>625</v>
       </c>
@@ -8558,8 +9647,11 @@
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="6" t="s">
         <v>625</v>
       </c>
@@ -8574,8 +9666,11 @@
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="6" t="s">
         <v>625</v>
       </c>
@@ -8590,8 +9685,11 @@
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="6" t="s">
         <v>625</v>
       </c>
@@ -8606,8 +9704,11 @@
       </c>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="6" t="s">
         <v>625</v>
       </c>
@@ -8622,8 +9723,11 @@
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="6" t="s">
         <v>625</v>
       </c>
@@ -8638,8 +9742,11 @@
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="6" t="s">
         <v>625</v>
       </c>
@@ -8654,8 +9761,11 @@
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="6" t="s">
         <v>625</v>
       </c>
@@ -8670,8 +9780,11 @@
       </c>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="6" t="s">
         <v>625</v>
       </c>
@@ -8686,8 +9799,11 @@
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="6" t="s">
         <v>626</v>
       </c>
@@ -8702,8 +9818,11 @@
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="6" t="s">
         <v>626</v>
       </c>
@@ -8718,8 +9837,11 @@
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="6" t="s">
         <v>626</v>
       </c>
@@ -8734,8 +9856,11 @@
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="6" t="s">
         <v>626</v>
       </c>
@@ -8750,8 +9875,11 @@
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="6" t="s">
         <v>626</v>
       </c>
@@ -8766,8 +9894,11 @@
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="6" t="s">
         <v>626</v>
       </c>
@@ -8782,8 +9913,11 @@
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="6" t="s">
         <v>626</v>
       </c>
@@ -8798,8 +9932,11 @@
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="6" t="s">
         <v>626</v>
       </c>
@@ -8814,8 +9951,11 @@
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="6" t="s">
         <v>626</v>
       </c>
@@ -8830,8 +9970,11 @@
       </c>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="6" t="s">
         <v>626</v>
       </c>
@@ -8846,8 +9989,11 @@
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="6" t="s">
         <v>626</v>
       </c>
@@ -8862,8 +10008,11 @@
       </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="6" t="s">
         <v>626</v>
       </c>
@@ -8878,8 +10027,11 @@
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="6" t="s">
         <v>626</v>
       </c>
@@ -8894,8 +10046,11 @@
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="6" t="s">
         <v>626</v>
       </c>
@@ -8910,8 +10065,11 @@
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="6" t="s">
         <v>43</v>
       </c>
@@ -8926,8 +10084,11 @@
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="6" t="s">
         <v>43</v>
       </c>
@@ -8942,8 +10103,11 @@
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="6" t="s">
         <v>43</v>
       </c>
@@ -8958,8 +10122,11 @@
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="6" t="s">
         <v>43</v>
       </c>
@@ -8974,8 +10141,11 @@
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="6" t="s">
         <v>43</v>
       </c>
@@ -8990,8 +10160,11 @@
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="6" t="s">
         <v>43</v>
       </c>
@@ -9006,8 +10179,11 @@
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="6" t="s">
         <v>43</v>
       </c>
@@ -9022,8 +10198,11 @@
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="6" t="s">
         <v>43</v>
       </c>
@@ -9038,8 +10217,11 @@
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="6" t="s">
         <v>43</v>
       </c>
@@ -9054,8 +10236,11 @@
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="6" t="s">
         <v>43</v>
       </c>
@@ -9070,8 +10255,11 @@
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="6" t="s">
         <v>43</v>
       </c>
@@ -9086,8 +10274,11 @@
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="6" t="s">
         <v>43</v>
       </c>
@@ -9102,8 +10293,11 @@
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="6" t="s">
         <v>627</v>
       </c>
@@ -9118,8 +10312,11 @@
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="6" t="s">
         <v>627</v>
       </c>
@@ -9134,8 +10331,11 @@
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="6" t="s">
         <v>627</v>
       </c>
@@ -9150,8 +10350,11 @@
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="6" t="s">
         <v>627</v>
       </c>
@@ -9166,8 +10369,11 @@
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="6" t="s">
         <v>627</v>
       </c>
@@ -9182,8 +10388,11 @@
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="6" t="s">
         <v>627</v>
       </c>
@@ -9198,8 +10407,11 @@
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="6" t="s">
         <v>0</v>
       </c>
@@ -9216,8 +10428,11 @@
       <c r="F284" s="5" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>871</v>
       </c>
@@ -9232,6 +10447,29 @@
       </c>
       <c r="F285" s="5" t="s">
         <v>820</v>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lib/project_haystack_units.xlsx
+++ b/lib/project_haystack_units.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nrel_units" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="889">
   <si>
     <t>undefined</t>
   </si>
@@ -2672,6 +2672,21 @@
   </si>
   <si>
     <t>allowable</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>volume per area</t>
+  </si>
+  <si>
+    <t>cubic meters per square meter</t>
+  </si>
+  <si>
+    <t>cubic_meters_per_square_meter</t>
+  </si>
+  <si>
+    <t>m³/m²</t>
   </si>
 </sst>
 </file>
@@ -2759,8 +2774,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2902,7 +2925,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2967,6 +2990,10 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3031,6 +3058,10 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4973,9 +5004,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D288" sqref="D288"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5587,19 +5620,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>578</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>884</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>878</v>
+      </c>
       <c r="G32" s="2" t="b">
         <v>1</v>
       </c>
@@ -5609,17 +5642,15 @@
         <v>578</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="b">
         <v>1</v>
@@ -5630,15 +5661,17 @@
         <v>578</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="b">
         <v>1</v>
@@ -5649,17 +5682,15 @@
         <v>578</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="b">
         <v>1</v>
@@ -5670,16 +5701,16 @@
         <v>578</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>105</v>
+        <v>658</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="b">
@@ -5691,15 +5722,17 @@
         <v>578</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>659</v>
+        <v>105</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="b">
         <v>1</v>
@@ -5710,17 +5743,15 @@
         <v>578</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="b">
         <v>1</v>
@@ -5731,16 +5762,16 @@
         <v>578</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="b">
@@ -5752,16 +5783,16 @@
         <v>578</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="b">
@@ -5773,16 +5804,16 @@
         <v>578</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="2" t="b">
@@ -5794,16 +5825,16 @@
         <v>578</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="2" t="b">
@@ -5815,15 +5846,17 @@
         <v>578</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="2" t="b">
         <v>1</v>
@@ -5834,17 +5867,15 @@
         <v>578</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="b">
         <v>1</v>
@@ -5852,18 +5883,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="b">
         <v>1</v>
@@ -5871,16 +5904,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -5890,16 +5923,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -5909,16 +5942,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -5931,13 +5964,13 @@
         <v>582</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -5947,16 +5980,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -5969,13 +6002,13 @@
         <v>583</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -5984,17 +6017,17 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>583</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -6003,17 +6036,17 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>583</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -6026,18 +6059,18 @@
         <v>583</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6045,13 +6078,13 @@
         <v>583</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -6064,13 +6097,13 @@
         <v>583</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -6083,13 +6116,13 @@
         <v>583</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6102,13 +6135,13 @@
         <v>583</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>7</v>
+        <v>679</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6118,35 +6151,35 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>157</v>
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>680</v>
+        <v>156</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6159,13 +6192,13 @@
         <v>585</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -6178,53 +6211,53 @@
         <v>585</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>167</v>
+        <v>683</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -6234,16 +6267,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -6253,16 +6286,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="6" t="s">
-        <v>34</v>
+        <v>588</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -6275,13 +6308,13 @@
         <v>34</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -6291,16 +6324,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>589</v>
+        <v>34</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>684</v>
+        <v>171</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6310,16 +6343,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -6329,16 +6362,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>177</v>
+        <v>685</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -6351,13 +6384,13 @@
         <v>591</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -6370,13 +6403,13 @@
         <v>591</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -6389,13 +6422,13 @@
         <v>591</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -6405,20 +6438,18 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="2" t="b">
         <v>1</v>
@@ -6429,16 +6460,16 @@
         <v>592</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="2" t="b">
@@ -6450,16 +6481,16 @@
         <v>592</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="2" t="b">
@@ -6471,16 +6502,16 @@
         <v>592</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="2" t="b">
@@ -6489,18 +6520,20 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>686</v>
+        <v>194</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E78" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="2" t="b">
         <v>1</v>
@@ -6508,20 +6541,18 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="2" t="b">
         <v>1</v>
@@ -6529,18 +6560,20 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6" t="s">
-        <v>35</v>
+        <v>594</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>202</v>
+        <v>687</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="2" t="b">
         <v>1</v>
@@ -6551,13 +6584,13 @@
         <v>35</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -6570,13 +6603,13 @@
         <v>35</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>688</v>
+        <v>204</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -6589,13 +6622,13 @@
         <v>35</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -6608,13 +6641,13 @@
         <v>35</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -6627,18 +6660,18 @@
         <v>35</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>23</v>
+        <v>690</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6646,13 +6679,13 @@
         <v>35</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -6665,17 +6698,15 @@
         <v>35</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="2" t="b">
         <v>0</v>
@@ -6686,15 +6717,17 @@
         <v>35</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>691</v>
+        <v>214</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="2" t="b">
         <v>0</v>
@@ -6705,18 +6738,18 @@
         <v>35</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>219</v>
+        <v>691</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6724,18 +6757,18 @@
         <v>35</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>8</v>
+        <v>219</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6743,18 +6776,18 @@
         <v>35</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>222</v>
+        <v>8</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6762,13 +6795,13 @@
         <v>35</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>223</v>
+        <v>692</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -6781,13 +6814,13 @@
         <v>35</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -6800,13 +6833,13 @@
         <v>35</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>693</v>
+        <v>225</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -6819,13 +6852,13 @@
         <v>35</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -6838,37 +6871,37 @@
         <v>35</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="6" t="s">
-        <v>595</v>
+        <v>35</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6876,13 +6909,13 @@
         <v>595</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -6895,13 +6928,13 @@
         <v>595</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -6911,16 +6944,16 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -6933,13 +6966,13 @@
         <v>596</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -6952,13 +6985,13 @@
         <v>596</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -6968,16 +7001,16 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -6990,13 +7023,13 @@
         <v>597</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -7009,18 +7042,18 @@
         <v>597</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7028,18 +7061,18 @@
         <v>597</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="5" t="b">
-        <v>1</v>
+      <c r="G106" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7047,18 +7080,18 @@
         <v>597</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="2" t="b">
-        <v>0</v>
+      <c r="G107" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7066,13 +7099,13 @@
         <v>597</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -7085,13 +7118,13 @@
         <v>597</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -7101,21 +7134,21 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="6" t="s">
-        <v>37</v>
+        <v>597</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7123,13 +7156,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -7142,13 +7175,13 @@
         <v>37</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -7161,18 +7194,18 @@
         <v>37</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7180,13 +7213,13 @@
         <v>37</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -7199,18 +7232,18 @@
         <v>37</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7218,13 +7251,13 @@
         <v>37</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -7237,13 +7270,13 @@
         <v>37</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -7256,13 +7289,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -7272,16 +7305,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="6" t="s">
-        <v>598</v>
+        <v>37</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -7294,13 +7327,13 @@
         <v>598</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -7313,13 +7346,13 @@
         <v>598</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -7329,16 +7362,16 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>279</v>
+        <v>720</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -7351,37 +7384,37 @@
         <v>599</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>721</v>
+        <v>279</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>283</v>
+        <v>721</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7389,13 +7422,13 @@
         <v>600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -7408,13 +7441,13 @@
         <v>600</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>722</v>
+        <v>285</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -7427,13 +7460,13 @@
         <v>600</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -7446,13 +7479,13 @@
         <v>600</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>289</v>
+        <v>723</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -7465,13 +7498,13 @@
         <v>600</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>724</v>
+        <v>289</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -7484,13 +7517,13 @@
         <v>600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -7503,13 +7536,13 @@
         <v>600</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -7522,13 +7555,13 @@
         <v>600</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -7538,16 +7571,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -7560,13 +7593,13 @@
         <v>601</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -7576,16 +7609,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -7598,13 +7631,13 @@
         <v>602</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -7617,13 +7650,13 @@
         <v>602</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -7636,18 +7669,18 @@
         <v>602</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7655,13 +7688,13 @@
         <v>602</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -7674,18 +7707,18 @@
         <v>602</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7693,13 +7726,13 @@
         <v>602</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -7709,16 +7742,16 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>313</v>
+        <v>736</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -7731,18 +7764,16 @@
         <v>603</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>823</v>
+        <v>313</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>822</v>
+        <v>313</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>821</v>
+        <v>314</v>
       </c>
       <c r="E143" s="5"/>
-      <c r="F143" s="5" t="s">
-        <v>820</v>
-      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="2" t="b">
         <v>1</v>
       </c>
@@ -7752,32 +7783,34 @@
         <v>603</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>315</v>
+        <v>823</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>737</v>
+        <v>822</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>316</v>
+        <v>821</v>
       </c>
       <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="G144" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>317</v>
+        <v>737</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -7787,16 +7820,16 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>738</v>
+        <v>317</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -7809,37 +7842,37 @@
         <v>605</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>323</v>
+        <v>739</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7847,13 +7880,13 @@
         <v>606</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -7866,13 +7899,13 @@
         <v>606</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -7885,13 +7918,13 @@
         <v>606</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -7904,13 +7937,13 @@
         <v>606</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -7923,18 +7956,18 @@
         <v>606</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7942,13 +7975,13 @@
         <v>606</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -7961,13 +7994,13 @@
         <v>606</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -7980,13 +8013,13 @@
         <v>606</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>9</v>
+        <v>337</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>9</v>
+        <v>337</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
@@ -7996,21 +8029,21 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>339</v>
+        <v>9</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>340</v>
+        <v>9</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8018,51 +8051,51 @@
         <v>607</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>740</v>
+        <v>343</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
@@ -8072,16 +8105,16 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>347</v>
+        <v>740</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -8091,16 +8124,16 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -8110,16 +8143,16 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -8132,13 +8165,13 @@
         <v>612</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -8151,13 +8184,13 @@
         <v>612</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
@@ -8170,18 +8203,18 @@
         <v>612</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -8189,13 +8222,13 @@
         <v>612</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -8208,18 +8241,18 @@
         <v>612</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>741</v>
+        <v>359</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -8227,37 +8260,37 @@
         <v>612</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -8265,13 +8298,13 @@
         <v>613</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
@@ -8284,13 +8317,13 @@
         <v>613</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -8303,18 +8336,18 @@
         <v>613</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -8322,13 +8355,13 @@
         <v>613</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -8341,13 +8374,13 @@
         <v>613</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -8360,18 +8393,18 @@
         <v>613</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -8379,13 +8412,13 @@
         <v>613</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
@@ -8398,13 +8431,13 @@
         <v>613</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -8414,16 +8447,16 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -8433,16 +8466,16 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="6" t="s">
-        <v>38</v>
+        <v>614</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>385</v>
+        <v>752</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
@@ -8455,13 +8488,13 @@
         <v>38</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -8474,13 +8507,13 @@
         <v>38</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -8493,13 +8526,13 @@
         <v>38</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -8512,13 +8545,13 @@
         <v>38</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -8531,18 +8564,18 @@
         <v>38</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>753</v>
+        <v>391</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -8550,13 +8583,13 @@
         <v>38</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>393</v>
+        <v>753</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -8569,13 +8602,13 @@
         <v>38</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>754</v>
+        <v>393</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -8588,18 +8621,18 @@
         <v>38</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -8607,18 +8640,18 @@
         <v>38</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -8626,18 +8659,18 @@
         <v>38</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -8645,13 +8678,13 @@
         <v>38</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -8664,13 +8697,13 @@
         <v>38</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -8680,16 +8713,16 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="6" t="s">
-        <v>615</v>
+        <v>38</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -8702,18 +8735,18 @@
         <v>615</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -8721,18 +8754,18 @@
         <v>615</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -8740,18 +8773,18 @@
         <v>615</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -8759,13 +8792,13 @@
         <v>615</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -8775,21 +8808,21 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -8797,18 +8830,18 @@
         <v>616</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -8816,13 +8849,13 @@
         <v>616</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -8835,13 +8868,13 @@
         <v>616</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -8851,21 +8884,21 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8873,13 +8906,13 @@
         <v>617</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -8892,13 +8925,13 @@
         <v>617</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -8908,16 +8941,16 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -8930,13 +8963,13 @@
         <v>618</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>432</v>
+        <v>4</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -8949,13 +8982,13 @@
         <v>618</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -8965,16 +8998,16 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>435</v>
+        <v>774</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -8987,13 +9020,13 @@
         <v>619</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -9006,13 +9039,13 @@
         <v>619</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>10</v>
+        <v>437</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>10</v>
+        <v>437</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -9025,13 +9058,13 @@
         <v>619</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>439</v>
+        <v>10</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>440</v>
+        <v>10</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -9044,18 +9077,18 @@
         <v>619</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>775</v>
+        <v>439</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -9063,18 +9096,18 @@
         <v>619</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -9082,18 +9115,18 @@
         <v>619</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -9101,18 +9134,18 @@
         <v>619</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -9120,13 +9153,13 @@
         <v>619</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -9139,18 +9172,18 @@
         <v>619</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9158,18 +9191,18 @@
         <v>619</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>453</v>
+        <v>780</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9177,13 +9210,13 @@
         <v>619</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1</v>
+        <v>454</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -9193,16 +9226,16 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>781</v>
+        <v>455</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -9212,16 +9245,16 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -9231,21 +9264,21 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="6" t="s">
-        <v>39</v>
+        <v>621</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>460</v>
+        <v>782</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9253,18 +9286,18 @@
         <v>39</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>5</v>
+        <v>460</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>5</v>
+        <v>460</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -9272,13 +9305,13 @@
         <v>39</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>462</v>
+        <v>5</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>462</v>
+        <v>5</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>463</v>
+        <v>42</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -9288,21 +9321,21 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="6" t="s">
-        <v>622</v>
+        <v>39</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>783</v>
+        <v>462</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9310,18 +9343,18 @@
         <v>622</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -9329,13 +9362,13 @@
         <v>622</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -9345,16 +9378,16 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -9364,16 +9397,16 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>472</v>
+        <v>786</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -9386,13 +9419,13 @@
         <v>624</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -9405,13 +9438,13 @@
         <v>624</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -9424,13 +9457,13 @@
         <v>624</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>787</v>
+        <v>476</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -9443,13 +9476,13 @@
         <v>624</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -9462,17 +9495,15 @@
         <v>624</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>482</v>
+        <v>788</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>484</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="2" t="b">
         <v>1</v>
@@ -9483,15 +9514,17 @@
         <v>624</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E235" s="5"/>
+        <v>483</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="F235" s="5"/>
       <c r="G235" s="2" t="b">
         <v>1</v>
@@ -9502,17 +9535,15 @@
         <v>624</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>489</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="2" t="b">
         <v>1</v>
@@ -9523,15 +9554,17 @@
         <v>624</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E237" s="5"/>
+        <v>487</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>489</v>
+      </c>
       <c r="F237" s="5"/>
       <c r="G237" s="2" t="b">
         <v>1</v>
@@ -9542,13 +9575,13 @@
         <v>624</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>491</v>
+        <v>11</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -9561,13 +9594,13 @@
         <v>624</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>789</v>
+        <v>490</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -9580,13 +9613,13 @@
         <v>624</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>494</v>
+        <v>789</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -9596,16 +9629,16 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>790</v>
+        <v>494</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -9618,13 +9651,13 @@
         <v>625</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -9637,13 +9670,13 @@
         <v>625</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -9656,18 +9689,18 @@
         <v>625</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -9675,13 +9708,13 @@
         <v>625</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -9694,13 +9727,13 @@
         <v>625</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -9713,18 +9746,18 @@
         <v>625</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -9732,13 +9765,13 @@
         <v>625</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -9751,13 +9784,13 @@
         <v>625</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -9770,13 +9803,13 @@
         <v>625</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -9789,37 +9822,37 @@
         <v>625</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>12</v>
+        <v>799</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>516</v>
+        <v>12</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>517</v>
+        <v>12</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -9827,13 +9860,13 @@
         <v>626</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -9846,13 +9879,13 @@
         <v>626</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -9865,13 +9898,13 @@
         <v>626</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>522</v>
+        <v>802</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -9884,13 +9917,13 @@
         <v>626</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -9903,13 +9936,13 @@
         <v>626</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -9922,18 +9955,18 @@
         <v>626</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>803</v>
+        <v>526</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9941,13 +9974,13 @@
         <v>626</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -9960,13 +9993,13 @@
         <v>626</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
@@ -9979,13 +10012,13 @@
         <v>626</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>534</v>
+        <v>805</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -9998,13 +10031,13 @@
         <v>626</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -10017,13 +10050,13 @@
         <v>626</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -10036,13 +10069,13 @@
         <v>626</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>806</v>
+        <v>538</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -10055,13 +10088,13 @@
         <v>626</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -10071,38 +10104,40 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="6" t="s">
-        <v>43</v>
+        <v>626</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="6" t="s">
-        <v>43</v>
+        <v>885</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>546</v>
+        <v>887</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>809</v>
+        <v>886</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>547</v>
+        <v>888</v>
       </c>
       <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
+      <c r="F267" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="G267" s="2" t="b">
         <v>1</v>
       </c>
@@ -10112,13 +10147,13 @@
         <v>43</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -10131,18 +10166,18 @@
         <v>43</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10150,18 +10185,18 @@
         <v>43</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10169,13 +10204,13 @@
         <v>43</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -10188,13 +10223,13 @@
         <v>43</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -10207,18 +10242,18 @@
         <v>43</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -10226,13 +10261,13 @@
         <v>43</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
@@ -10245,13 +10280,13 @@
         <v>43</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
@@ -10264,18 +10299,18 @@
         <v>43</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10283,13 +10318,13 @@
         <v>43</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
@@ -10299,16 +10334,16 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="6" t="s">
-        <v>627</v>
+        <v>43</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>13</v>
+        <v>564</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>13</v>
+        <v>818</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -10318,16 +10353,16 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="6" t="s">
-        <v>627</v>
+        <v>43</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>568</v>
+        <v>819</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -10340,13 +10375,13 @@
         <v>627</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>570</v>
+        <v>13</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>571</v>
+        <v>13</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -10359,13 +10394,13 @@
         <v>627</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -10378,13 +10413,13 @@
         <v>627</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -10397,13 +10432,13 @@
         <v>627</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -10413,62 +10448,96 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="6" t="s">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="E284" s="5"/>
-      <c r="F284" s="5" t="s">
-        <v>820</v>
-      </c>
+      <c r="F284" s="5"/>
       <c r="G284" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" t="s">
-        <v>871</v>
-      </c>
-      <c r="B285" t="s">
-        <v>872</v>
-      </c>
-      <c r="C285" t="s">
-        <v>873</v>
-      </c>
-      <c r="D285" t="s">
-        <v>870</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>820</v>
-      </c>
+      <c r="A285" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
       <c r="G285" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>871</v>
+      </c>
+      <c r="B287" t="s">
+        <v>872</v>
+      </c>
+      <c r="C287" t="s">
+        <v>873</v>
+      </c>
+      <c r="D287" t="s">
+        <v>870</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B288" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C288" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="D286" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="F286" s="6" t="s">
+      <c r="D288" s="6"/>
+      <c r="F288" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="G286" s="2" t="b">
+      <c r="G288" s="2" t="b">
         <v>1</v>
       </c>
     </row>
